--- a/500600.xlsx
+++ b/500600.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="442">
   <si>
     <r>
       <rPr>
@@ -5652,6 +5652,17 @@
   </si>
   <si>
     <t>意味</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>レア度</t>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -6106,10 +6117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G301"/>
+  <dimension ref="A1:H301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N100" sqref="N100"/>
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6117,13 +6128,13 @@
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="38.1640625" customWidth="1"/>
-    <col min="6" max="6" width="44" customWidth="1"/>
-    <col min="7" max="7" width="44.1640625" customWidth="1"/>
+    <col min="4" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="38.1640625" customWidth="1"/>
+    <col min="7" max="7" width="44" customWidth="1"/>
+    <col min="8" max="8" width="44.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6136,17 +6147,20 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.5" customHeight="1">
+    <row r="2" spans="1:8" ht="13.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -6160,16 +6174,19 @@
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" customHeight="1">
+    <row r="3" spans="1:8" ht="27" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -6182,17 +6199,20 @@
       <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.5" customHeight="1">
+    <row r="4" spans="1:8" ht="13.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -6206,16 +6226,19 @@
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -6229,16 +6252,19 @@
         <v>26</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -6252,16 +6278,19 @@
         <v>7</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27" customHeight="1">
+    <row r="7" spans="1:8" ht="27" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
@@ -6275,16 +6304,19 @@
         <v>7</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27" customHeight="1">
+    <row r="8" spans="1:8" ht="27" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -6298,16 +6330,19 @@
         <v>7</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1">
+    <row r="9" spans="1:8" ht="19.5" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>34</v>
       </c>
@@ -6321,16 +6356,19 @@
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" customHeight="1">
+    <row r="10" spans="1:8" ht="27" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
@@ -6344,16 +6382,19 @@
         <v>7</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.5" customHeight="1">
+    <row r="11" spans="1:8" ht="19.5" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -6367,16 +6408,19 @@
         <v>6</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27" customHeight="1">
+    <row r="12" spans="1:8" ht="27" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
@@ -6390,16 +6434,19 @@
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="27" customHeight="1">
+    <row r="13" spans="1:8" ht="27" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>59</v>
       </c>
@@ -6413,16 +6460,19 @@
         <v>6</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1">
+    <row r="14" spans="1:8" ht="19.5" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>59</v>
       </c>
@@ -6436,16 +6486,19 @@
         <v>65</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27" customHeight="1">
+    <row r="15" spans="1:8" ht="27" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>59</v>
       </c>
@@ -6459,16 +6512,19 @@
         <v>7</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27" customHeight="1">
+    <row r="16" spans="1:8" ht="27" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>59</v>
       </c>
@@ -6482,16 +6538,19 @@
         <v>10</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19.5" customHeight="1">
+    <row r="17" spans="1:8" ht="19.5" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>59</v>
       </c>
@@ -6505,16 +6564,19 @@
         <v>10</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1">
+    <row r="18" spans="1:8" ht="19.5" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>59</v>
       </c>
@@ -6528,16 +6590,19 @@
         <v>6</v>
       </c>
       <c r="E18" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19.5" customHeight="1">
+    <row r="19" spans="1:8" ht="19.5" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>59</v>
       </c>
@@ -6551,16 +6616,19 @@
         <v>7</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19.5" customHeight="1">
+    <row r="20" spans="1:8" ht="19.5" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>59</v>
       </c>
@@ -6574,16 +6642,19 @@
         <v>10</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19.5" customHeight="1">
+    <row r="21" spans="1:8" ht="19.5" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>59</v>
       </c>
@@ -6597,16 +6668,19 @@
         <v>9</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19.5" customHeight="1">
+    <row r="22" spans="1:8" ht="19.5" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>97</v>
       </c>
@@ -6620,16 +6694,19 @@
         <v>6</v>
       </c>
       <c r="E22" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="H22" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19.5" customHeight="1">
+    <row r="23" spans="1:8" ht="19.5" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>97</v>
       </c>
@@ -6643,16 +6720,19 @@
         <v>7</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="27" customHeight="1">
+    <row r="24" spans="1:8" ht="27" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>97</v>
       </c>
@@ -6666,16 +6746,19 @@
         <v>7</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="27" customHeight="1">
+    <row r="25" spans="1:8" ht="27" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>97</v>
       </c>
@@ -6689,16 +6772,19 @@
         <v>7</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19.5" customHeight="1">
+    <row r="26" spans="1:8" ht="19.5" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>114</v>
       </c>
@@ -6712,16 +6798,19 @@
         <v>116</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27" customHeight="1">
+    <row r="27" spans="1:8" ht="27" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>114</v>
       </c>
@@ -6735,16 +6824,19 @@
         <v>121</v>
       </c>
       <c r="E27" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19.5" customHeight="1">
+    <row r="28" spans="1:8" ht="19.5" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>114</v>
       </c>
@@ -6758,16 +6850,19 @@
         <v>7</v>
       </c>
       <c r="E28" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19.5" customHeight="1">
+    <row r="29" spans="1:8" ht="19.5" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>114</v>
       </c>
@@ -6781,16 +6876,19 @@
         <v>10</v>
       </c>
       <c r="E29" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="H29" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.5" customHeight="1">
+    <row r="30" spans="1:8" ht="13.5" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>133</v>
       </c>
@@ -6804,16 +6902,19 @@
         <v>7</v>
       </c>
       <c r="E30" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="H30" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="13.5" customHeight="1">
+    <row r="31" spans="1:8" ht="13.5" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>133</v>
       </c>
@@ -6826,17 +6927,20 @@
       <c r="D31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="19.5" customHeight="1">
+    <row r="32" spans="1:8" ht="19.5" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>133</v>
       </c>
@@ -6850,16 +6954,19 @@
         <v>6</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.5" customHeight="1">
+    <row r="33" spans="1:8" ht="13.5" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>133</v>
       </c>
@@ -6873,16 +6980,19 @@
         <v>147</v>
       </c>
       <c r="E33" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.5" customHeight="1">
+    <row r="34" spans="1:8" ht="13.5" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>151</v>
       </c>
@@ -6896,16 +7006,19 @@
         <v>7</v>
       </c>
       <c r="E34" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="27" customHeight="1">
+    <row r="35" spans="1:8" ht="27" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>151</v>
       </c>
@@ -6919,16 +7032,19 @@
         <v>7</v>
       </c>
       <c r="E35" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="27" customHeight="1">
+    <row r="36" spans="1:8" ht="27" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>151</v>
       </c>
@@ -6941,17 +7057,20 @@
       <c r="D36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="13.5" customHeight="1">
+    <row r="37" spans="1:8" ht="13.5" customHeight="1">
       <c r="A37" s="6" t="s">
         <v>164</v>
       </c>
@@ -6965,16 +7084,19 @@
         <v>166</v>
       </c>
       <c r="E37" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13.5" customHeight="1">
+    <row r="38" spans="1:8" ht="13.5" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>164</v>
       </c>
@@ -6988,16 +7110,19 @@
         <v>7</v>
       </c>
       <c r="E38" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="H38" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13.5" customHeight="1">
+    <row r="39" spans="1:8" ht="13.5" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>164</v>
       </c>
@@ -7010,17 +7135,20 @@
       <c r="D39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="27" customHeight="1">
+    <row r="40" spans="1:8" ht="27" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>164</v>
       </c>
@@ -7034,16 +7162,19 @@
         <v>9</v>
       </c>
       <c r="E40" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="40.5" customHeight="1">
+    <row r="41" spans="1:8" ht="40.5" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>164</v>
       </c>
@@ -7057,16 +7188,19 @@
         <v>183</v>
       </c>
       <c r="E41" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="H41" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="19.5" customHeight="1">
+    <row r="42" spans="1:8" ht="19.5" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>187</v>
       </c>
@@ -7080,16 +7214,19 @@
         <v>6</v>
       </c>
       <c r="E42" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="H42" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="19.5" customHeight="1">
+    <row r="43" spans="1:8" ht="19.5" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>187</v>
       </c>
@@ -7103,16 +7240,19 @@
         <v>7</v>
       </c>
       <c r="E43" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="27" customHeight="1">
+    <row r="44" spans="1:8" ht="27" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>187</v>
       </c>
@@ -7126,16 +7266,19 @@
         <v>10</v>
       </c>
       <c r="E44" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="H44" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="27" customHeight="1">
+    <row r="45" spans="1:8" ht="27" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>187</v>
       </c>
@@ -7149,16 +7292,19 @@
         <v>10</v>
       </c>
       <c r="E45" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="H45" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="19.5" customHeight="1">
+    <row r="46" spans="1:8" ht="19.5" customHeight="1">
       <c r="A46" s="6" t="s">
         <v>187</v>
       </c>
@@ -7172,16 +7318,19 @@
         <v>10</v>
       </c>
       <c r="E46" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="H46" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="27" customHeight="1">
+    <row r="47" spans="1:8" ht="27" customHeight="1">
       <c r="A47" s="6" t="s">
         <v>208</v>
       </c>
@@ -7194,17 +7343,20 @@
       <c r="D47" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="H47" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="19.5" customHeight="1">
+    <row r="48" spans="1:8" ht="19.5" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>208</v>
       </c>
@@ -7218,16 +7370,19 @@
         <v>7</v>
       </c>
       <c r="E48" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="H48" s="7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="19.5" customHeight="1">
+    <row r="49" spans="1:8" ht="19.5" customHeight="1">
       <c r="A49" s="6" t="s">
         <v>208</v>
       </c>
@@ -7241,16 +7396,19 @@
         <v>7</v>
       </c>
       <c r="E49" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="G49" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="H49" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="19.5" customHeight="1">
+    <row r="50" spans="1:8" ht="19.5" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>208</v>
       </c>
@@ -7264,16 +7422,19 @@
         <v>7</v>
       </c>
       <c r="E50" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="H50" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="27" customHeight="1">
+    <row r="51" spans="1:8" ht="27" customHeight="1">
       <c r="A51" s="6" t="s">
         <v>208</v>
       </c>
@@ -7287,16 +7448,19 @@
         <v>10</v>
       </c>
       <c r="E51" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="G51" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="H51" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="19.5" customHeight="1">
+    <row r="52" spans="1:8" ht="19.5" customHeight="1">
       <c r="A52" s="6" t="s">
         <v>230</v>
       </c>
@@ -7310,16 +7474,19 @@
         <v>6</v>
       </c>
       <c r="E52" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="G52" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="H52" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="19.5" customHeight="1">
+    <row r="53" spans="1:8" ht="19.5" customHeight="1">
       <c r="A53" s="6" t="s">
         <v>230</v>
       </c>
@@ -7333,16 +7500,19 @@
         <v>7</v>
       </c>
       <c r="E53" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="G53" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="H53" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="19.5" customHeight="1">
+    <row r="54" spans="1:8" ht="19.5" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>230</v>
       </c>
@@ -7356,16 +7526,19 @@
         <v>166</v>
       </c>
       <c r="E54" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F54" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="H54" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="27" customHeight="1">
+    <row r="55" spans="1:8" ht="27" customHeight="1">
       <c r="A55" s="6" t="s">
         <v>230</v>
       </c>
@@ -7379,16 +7552,19 @@
         <v>6</v>
       </c>
       <c r="E55" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="G55" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="H55" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="29.25" customHeight="1">
+    <row r="56" spans="1:8" ht="29.25" customHeight="1">
       <c r="A56" s="6" t="s">
         <v>230</v>
       </c>
@@ -7402,16 +7578,19 @@
         <v>7</v>
       </c>
       <c r="E56" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="G56" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="H56" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="27" customHeight="1">
+    <row r="57" spans="1:8" ht="27" customHeight="1">
       <c r="A57" s="6" t="s">
         <v>230</v>
       </c>
@@ -7425,16 +7604,19 @@
         <v>166</v>
       </c>
       <c r="E57" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="G57" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="H57" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="19.5" customHeight="1">
+    <row r="58" spans="1:8" ht="19.5" customHeight="1">
       <c r="A58" s="6" t="s">
         <v>230</v>
       </c>
@@ -7448,16 +7630,19 @@
         <v>10</v>
       </c>
       <c r="E58" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="G58" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="H58" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="19.5" customHeight="1">
+    <row r="59" spans="1:8" ht="19.5" customHeight="1">
       <c r="A59" s="6" t="s">
         <v>230</v>
       </c>
@@ -7470,17 +7655,20 @@
       <c r="D59" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="G59" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="H59" s="7" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="27" customHeight="1">
+    <row r="60" spans="1:8" ht="27" customHeight="1">
       <c r="A60" s="6" t="s">
         <v>230</v>
       </c>
@@ -7494,16 +7682,19 @@
         <v>8</v>
       </c>
       <c r="E60" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="G60" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="H60" s="7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="27" customHeight="1">
+    <row r="61" spans="1:8" ht="27" customHeight="1">
       <c r="A61" s="6" t="s">
         <v>267</v>
       </c>
@@ -7517,16 +7708,19 @@
         <v>7</v>
       </c>
       <c r="E61" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F61" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="G61" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="H61" s="6" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="27" customHeight="1">
+    <row r="62" spans="1:8" ht="27" customHeight="1">
       <c r="A62" s="6" t="s">
         <v>267</v>
       </c>
@@ -7540,16 +7734,19 @@
         <v>7</v>
       </c>
       <c r="E62" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="G62" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="H62" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13.5" customHeight="1">
+    <row r="63" spans="1:8" ht="13.5" customHeight="1">
       <c r="A63" s="6" t="s">
         <v>267</v>
       </c>
@@ -7563,16 +7760,19 @@
         <v>7</v>
       </c>
       <c r="E63" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F63" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="G63" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="H63" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="27" customHeight="1">
+    <row r="64" spans="1:8" ht="27" customHeight="1">
       <c r="A64" s="6" t="s">
         <v>267</v>
       </c>
@@ -7586,16 +7786,19 @@
         <v>10</v>
       </c>
       <c r="E64" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F64" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="G64" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="H64" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="19.5" customHeight="1">
+    <row r="65" spans="1:8" ht="19.5" customHeight="1">
       <c r="A65" s="6" t="s">
         <v>267</v>
       </c>
@@ -7608,17 +7811,20 @@
       <c r="D65" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="19.5" customHeight="1">
+    <row r="66" spans="1:8" ht="19.5" customHeight="1">
       <c r="A66" s="6" t="s">
         <v>288</v>
       </c>
@@ -7632,16 +7838,19 @@
         <v>7</v>
       </c>
       <c r="E66" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F66" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="G66" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="H66" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="19.5" customHeight="1">
+    <row r="67" spans="1:8" ht="19.5" customHeight="1">
       <c r="A67" s="6" t="s">
         <v>288</v>
       </c>
@@ -7655,16 +7864,19 @@
         <v>7</v>
       </c>
       <c r="E67" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="G67" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="H67" s="6" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="19.5" customHeight="1">
+    <row r="68" spans="1:8" ht="19.5" customHeight="1">
       <c r="A68" s="6" t="s">
         <v>297</v>
       </c>
@@ -7678,16 +7890,19 @@
         <v>7</v>
       </c>
       <c r="E68" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F68" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="G68" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="H68" s="6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="19.5" customHeight="1">
+    <row r="69" spans="1:8" ht="19.5" customHeight="1">
       <c r="A69" s="6" t="s">
         <v>297</v>
       </c>
@@ -7701,16 +7916,19 @@
         <v>7</v>
       </c>
       <c r="E69" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F69" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="G69" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="H69" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="27" customHeight="1">
+    <row r="70" spans="1:8" ht="27" customHeight="1">
       <c r="A70" s="6" t="s">
         <v>297</v>
       </c>
@@ -7723,17 +7941,20 @@
       <c r="D70" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F70" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="G70" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="H70" s="7" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="27" customHeight="1">
+    <row r="71" spans="1:8" ht="27" customHeight="1">
       <c r="A71" s="6" t="s">
         <v>297</v>
       </c>
@@ -7747,16 +7968,19 @@
         <v>10</v>
       </c>
       <c r="E71" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F71" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="G71" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="H71" s="6" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="13.5" customHeight="1">
+    <row r="72" spans="1:8" ht="13.5" customHeight="1">
       <c r="A72" s="6" t="s">
         <v>297</v>
       </c>
@@ -7770,16 +7994,19 @@
         <v>10</v>
       </c>
       <c r="E72" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F72" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="G72" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="H72" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="29.25" customHeight="1">
+    <row r="73" spans="1:8" ht="29.25" customHeight="1">
       <c r="A73" s="6" t="s">
         <v>297</v>
       </c>
@@ -7793,16 +8020,19 @@
         <v>10</v>
       </c>
       <c r="E73" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F73" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="G73" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="H73" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="27" customHeight="1">
+    <row r="74" spans="1:8" ht="27" customHeight="1">
       <c r="A74" s="6" t="s">
         <v>297</v>
       </c>
@@ -7816,16 +8046,19 @@
         <v>6</v>
       </c>
       <c r="E74" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F74" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="H74" s="7" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="27" customHeight="1">
+    <row r="75" spans="1:8" ht="27" customHeight="1">
       <c r="A75" s="6" t="s">
         <v>297</v>
       </c>
@@ -7839,16 +8072,19 @@
         <v>10</v>
       </c>
       <c r="E75" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F75" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="G75" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="H75" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="27" customHeight="1">
+    <row r="76" spans="1:8" ht="27" customHeight="1">
       <c r="A76" s="6" t="s">
         <v>330</v>
       </c>
@@ -7862,16 +8098,19 @@
         <v>7</v>
       </c>
       <c r="E76" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F76" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="G76" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="H76" s="6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="27" customHeight="1">
+    <row r="77" spans="1:8" ht="27" customHeight="1">
       <c r="A77" s="6" t="s">
         <v>330</v>
       </c>
@@ -7884,17 +8123,20 @@
       <c r="D77" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F77" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="G77" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="H77" s="7" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="27.75" customHeight="1">
+    <row r="78" spans="1:8" ht="27.75" customHeight="1">
       <c r="A78" s="6" t="s">
         <v>330</v>
       </c>
@@ -7907,17 +8149,20 @@
       <c r="D78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F78" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="G78" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="H78" s="7" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="19.5" customHeight="1">
+    <row r="79" spans="1:8" ht="19.5" customHeight="1">
       <c r="A79" s="6" t="s">
         <v>330</v>
       </c>
@@ -7930,17 +8175,20 @@
       <c r="D79" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F79" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="G79" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="H79" s="6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="19.5" customHeight="1">
+    <row r="80" spans="1:8" ht="19.5" customHeight="1">
       <c r="A80" s="6" t="s">
         <v>330</v>
       </c>
@@ -7954,16 +8202,19 @@
         <v>10</v>
       </c>
       <c r="E80" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F80" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="G80" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="H80" s="6" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="19.5" customHeight="1">
+    <row r="81" spans="1:8" ht="19.5" customHeight="1">
       <c r="A81" s="6" t="s">
         <v>330</v>
       </c>
@@ -7977,16 +8228,19 @@
         <v>7</v>
       </c>
       <c r="E81" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F81" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="G81" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="H81" s="6" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="27" customHeight="1">
+    <row r="82" spans="1:8" ht="27" customHeight="1">
       <c r="A82" s="6" t="s">
         <v>355</v>
       </c>
@@ -8000,16 +8254,19 @@
         <v>7</v>
       </c>
       <c r="E82" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F82" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="G82" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="H82" s="6" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="19.5" customHeight="1">
+    <row r="83" spans="1:8" ht="19.5" customHeight="1">
       <c r="A83" s="6" t="s">
         <v>355</v>
       </c>
@@ -8022,17 +8279,20 @@
       <c r="D83" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F83" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="G83" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="H83" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="13.5" customHeight="1">
+    <row r="84" spans="1:8" ht="13.5" customHeight="1">
       <c r="A84" s="6" t="s">
         <v>355</v>
       </c>
@@ -8046,16 +8306,19 @@
         <v>7</v>
       </c>
       <c r="E84" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F84" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="G84" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="H84" s="6" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="27" customHeight="1">
+    <row r="85" spans="1:8" ht="27" customHeight="1">
       <c r="A85" s="6" t="s">
         <v>355</v>
       </c>
@@ -8069,16 +8332,19 @@
         <v>7</v>
       </c>
       <c r="E85" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F85" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="G85" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="H85" s="7" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="27" customHeight="1">
+    <row r="86" spans="1:8" ht="27" customHeight="1">
       <c r="A86" s="6" t="s">
         <v>355</v>
       </c>
@@ -8092,16 +8358,19 @@
         <v>7</v>
       </c>
       <c r="E86" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F86" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="G86" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="H86" s="6" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="27" customHeight="1">
+    <row r="87" spans="1:8" ht="27" customHeight="1">
       <c r="A87" s="6" t="s">
         <v>355</v>
       </c>
@@ -8115,16 +8384,19 @@
         <v>10</v>
       </c>
       <c r="E87" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F87" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="G87" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="H87" s="6" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="13.5" customHeight="1">
+    <row r="88" spans="1:8" ht="13.5" customHeight="1">
       <c r="A88" s="6" t="s">
         <v>355</v>
       </c>
@@ -8138,16 +8410,19 @@
         <v>10</v>
       </c>
       <c r="E88" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F88" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="G88" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="H88" s="6" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="19.5" customHeight="1">
+    <row r="89" spans="1:8" ht="19.5" customHeight="1">
       <c r="A89" s="6" t="s">
         <v>384</v>
       </c>
@@ -8161,16 +8436,19 @@
         <v>7</v>
       </c>
       <c r="E89" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F89" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="G89" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="G89" s="6" t="s">
+      <c r="H89" s="6" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="19.5" customHeight="1">
+    <row r="90" spans="1:8" ht="19.5" customHeight="1">
       <c r="A90" s="6" t="s">
         <v>384</v>
       </c>
@@ -8184,16 +8462,19 @@
         <v>10</v>
       </c>
       <c r="E90" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F90" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="G90" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="H90" s="6" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="19.5" customHeight="1">
+    <row r="91" spans="1:8" ht="19.5" customHeight="1">
       <c r="A91" s="6" t="s">
         <v>384</v>
       </c>
@@ -8206,17 +8487,20 @@
       <c r="D91" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F91" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="G91" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="H91" s="7" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="27" customHeight="1">
+    <row r="92" spans="1:8" ht="27" customHeight="1">
       <c r="A92" s="6" t="s">
         <v>384</v>
       </c>
@@ -8230,16 +8514,19 @@
         <v>7</v>
       </c>
       <c r="E92" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F92" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="G92" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="H92" s="6" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="19.5" customHeight="1">
+    <row r="93" spans="1:8" ht="19.5" customHeight="1">
       <c r="A93" s="6" t="s">
         <v>384</v>
       </c>
@@ -8253,16 +8540,19 @@
         <v>10</v>
       </c>
       <c r="E93" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F93" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="G93" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="H93" s="6" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="13.5" customHeight="1">
+    <row r="94" spans="1:8" ht="13.5" customHeight="1">
       <c r="A94" s="6" t="s">
         <v>384</v>
       </c>
@@ -8276,16 +8566,19 @@
         <v>12</v>
       </c>
       <c r="E94" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F94" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="G94" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="G94" s="7" t="s">
+      <c r="H94" s="7" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="40.5" customHeight="1">
+    <row r="95" spans="1:8" ht="40.5" customHeight="1">
       <c r="A95" s="6" t="s">
         <v>409</v>
       </c>
@@ -8299,16 +8592,19 @@
         <v>7</v>
       </c>
       <c r="E95" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F95" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="G95" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="H95" s="6" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="27" customHeight="1">
+    <row r="96" spans="1:8" ht="27" customHeight="1">
       <c r="A96" s="6" t="s">
         <v>409</v>
       </c>
@@ -8322,16 +8618,19 @@
         <v>7</v>
       </c>
       <c r="E96" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F96" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="G96" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="H96" s="6" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="13.5" customHeight="1">
+    <row r="97" spans="1:8" ht="13.5" customHeight="1">
       <c r="A97" s="6" t="s">
         <v>409</v>
       </c>
@@ -8345,16 +8644,19 @@
         <v>7</v>
       </c>
       <c r="E97" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F97" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="G97" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="G97" s="6" t="s">
+      <c r="H97" s="6" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="13.5" customHeight="1">
+    <row r="98" spans="1:8" ht="13.5" customHeight="1">
       <c r="A98" s="6" t="s">
         <v>409</v>
       </c>
@@ -8368,16 +8670,19 @@
         <v>10</v>
       </c>
       <c r="E98" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F98" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="G98" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="G98" s="6" t="s">
+      <c r="H98" s="6" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="40.5" customHeight="1">
+    <row r="99" spans="1:8" ht="40.5" customHeight="1">
       <c r="A99" s="6" t="s">
         <v>426</v>
       </c>
@@ -8391,16 +8696,19 @@
         <v>6</v>
       </c>
       <c r="E99" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F99" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="G99" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="G99" s="6" t="s">
+      <c r="H99" s="6" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="27" customHeight="1">
+    <row r="100" spans="1:8" ht="27" customHeight="1">
       <c r="A100" s="6" t="s">
         <v>426</v>
       </c>
@@ -8413,17 +8721,20 @@
       <c r="D100" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F100" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="G100" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="G100" s="7" t="s">
+      <c r="H100" s="7" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="19.5" customHeight="1">
+    <row r="101" spans="1:8" ht="19.5" customHeight="1">
       <c r="A101" s="6" t="s">
         <v>426</v>
       </c>
@@ -8437,26 +8748,29 @@
         <v>7</v>
       </c>
       <c r="E101" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F101" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="G101" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="G101" s="6" t="s">
+      <c r="H101" s="6" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="27" customHeight="1"/>
-    <row r="103" spans="1:7" ht="54" customHeight="1"/>
-    <row r="104" spans="1:7" ht="27" customHeight="1"/>
-    <row r="105" spans="1:7" ht="27" customHeight="1"/>
-    <row r="106" spans="1:7" ht="40.5" customHeight="1"/>
-    <row r="107" spans="1:7" ht="13.5" customHeight="1"/>
-    <row r="108" spans="1:7" ht="13.5" customHeight="1"/>
-    <row r="109" spans="1:7" ht="13.5" customHeight="1"/>
-    <row r="110" spans="1:7" ht="13.5" customHeight="1"/>
-    <row r="111" spans="1:7" ht="13.5" customHeight="1"/>
-    <row r="112" spans="1:7" ht="13.5" customHeight="1"/>
+    <row r="102" spans="1:8" ht="27" customHeight="1"/>
+    <row r="103" spans="1:8" ht="54" customHeight="1"/>
+    <row r="104" spans="1:8" ht="27" customHeight="1"/>
+    <row r="105" spans="1:8" ht="27" customHeight="1"/>
+    <row r="106" spans="1:8" ht="40.5" customHeight="1"/>
+    <row r="107" spans="1:8" ht="13.5" customHeight="1"/>
+    <row r="108" spans="1:8" ht="13.5" customHeight="1"/>
+    <row r="109" spans="1:8" ht="13.5" customHeight="1"/>
+    <row r="110" spans="1:8" ht="13.5" customHeight="1"/>
+    <row r="111" spans="1:8" ht="13.5" customHeight="1"/>
+    <row r="112" spans="1:8" ht="13.5" customHeight="1"/>
     <row r="113" ht="19.5" customHeight="1"/>
     <row r="114" ht="27" customHeight="1"/>
     <row r="115" ht="27" customHeight="1"/>
